--- a/biology/Botanique/Audrey_Bourolleau/Audrey_Bourolleau.xlsx
+++ b/biology/Botanique/Audrey_Bourolleau/Audrey_Bourolleau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Audrey Bourolleau (épouse Alberti[1], née le 10 novembre 1980 à Niort) est une conseillère politique, lobbyiste et entrepreneuse française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Audrey Bourolleau (épouse Alberti, née le 10 novembre 1980 à Niort) est une conseillère politique, lobbyiste et entrepreneuse française.
 Elle est la fondatrice d'Hectar, école gratuite d'agriculture financée par l'homme d'affaires Xavier Niel.
 </t>
         </is>
@@ -512,18 +524,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômée de l'École supérieure de commerce de La Rochelle, Audrey Bourolleau commence sa carrière dans le groupe Bic où elle est chargée du développement commercial sur les zones Afrique et Moyen-Orient[2],[3].
-Elle a ensuite travaillé huit ans aux directions marketing et commerciales de baron Philippe de Rothschild puis de France Boissons, avant de prendre en 2010 la direction du syndicat des côtes-de-bordeaux[4].
-En 2012, elle devient déléguée générale de Vin et société[5] qui regroupe l'ensemble de la filière de la vigne et du vin et qui est souvent désignée comme le très puissant lobby viticole français[6]. À cette fonction elle lance une grande campagne contre « le matraquage anti-vignoble »[7] et elle obtient notamment un an plus tard une révision de la loi Évin[8] dénoncée comme un affaiblissement par les alcoologues et de nombreuses associations de prévention des risques liés à la consommation d'alcool[9].
-Son action à la tête de la filière viticole française lui vaut d'être désignée « Femme de l'année 2014 » par le magazine La Revue du vin de France[10].
-En 2016, Audrey Bourolleau participe à la création de La Transition[11], mouvement citoyen, « ni de droite, ni de gauche », qui soutient l'idée d'un candidat issu de la société civile à la Présidentielle de 2017[12]. Quelques mois plus tard, la Transition choisit de soutenir Emmanuel Macron et Audrey Bourolleau rejoint son équipe de campagne où elle devient référente sur les questions agricoles[13].
-Après l'élection d'Emmanuel Macron, elle intègre son cabinet à l'Élysée en tant que conseillère agriculture, pêche, forêt et développement rural[14].
-Sa nomination à cette fonction donne lieu à une polémique du fait de son passé de lobbyiste de la filière viticole[15],[16],[17],[18]. Plusieurs organisations, dont la Fédération française d’addictologie dénoncent un possible conflit d'intérêts « au détriment de la santé publique ». Des documents divulgués par  Le Monde en 2022 montrent comment Audrey Bourolleau a défendu à l’Élysée les intérêts du secteur de l’alcool, et est intervenue pour édulcorer les stratégies publiques de lutte contre les consommations nocives d’alcool[19].
-Elle quitte l'Élysée en juillet 2019. Les milieux agricoles évoquent des tensions avec le ministre de l'Agriculture de l'époque, Didier Guillaume[20].
-En décembre 2019, elle fait l'acquisition d'un domaine agricole de 250 hectares dans les Yvelines, qu’elle entreprend de convertir à l’agriculture biologique de conservation (ABC) et où elle annonce vouloir faire « le plus grand campus agricole du monde », baptisé Hectar, pour y former des salariés agricoles, des  « chefs d’entreprise agricole », y installer un accélérateur de start-up, et  « sensibiliser » de jeunes publics à l'agriculture[21],[22] sur lequel elle fonde Hectar, une école d'agriculture[23] gratuite, financée par l'homme d'affaires et milliardaire Xavier Niel[24].
-Pendant la campagne présidentielle de 2022, elle est placée par Emmanuel Macron à la tête de son groupe de campagne consacré aux questions d’agriculture et d’alimentation[19].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômée de l'École supérieure de commerce de La Rochelle, Audrey Bourolleau commence sa carrière dans le groupe Bic où elle est chargée du développement commercial sur les zones Afrique et Moyen-Orient,.
+Elle a ensuite travaillé huit ans aux directions marketing et commerciales de baron Philippe de Rothschild puis de France Boissons, avant de prendre en 2010 la direction du syndicat des côtes-de-bordeaux.
+En 2012, elle devient déléguée générale de Vin et société qui regroupe l'ensemble de la filière de la vigne et du vin et qui est souvent désignée comme le très puissant lobby viticole français. À cette fonction elle lance une grande campagne contre « le matraquage anti-vignoble » et elle obtient notamment un an plus tard une révision de la loi Évin dénoncée comme un affaiblissement par les alcoologues et de nombreuses associations de prévention des risques liés à la consommation d'alcool.
+Son action à la tête de la filière viticole française lui vaut d'être désignée « Femme de l'année 2014 » par le magazine La Revue du vin de France.
+En 2016, Audrey Bourolleau participe à la création de La Transition, mouvement citoyen, « ni de droite, ni de gauche », qui soutient l'idée d'un candidat issu de la société civile à la Présidentielle de 2017. Quelques mois plus tard, la Transition choisit de soutenir Emmanuel Macron et Audrey Bourolleau rejoint son équipe de campagne où elle devient référente sur les questions agricoles.
+Après l'élection d'Emmanuel Macron, elle intègre son cabinet à l'Élysée en tant que conseillère agriculture, pêche, forêt et développement rural.
+Sa nomination à cette fonction donne lieu à une polémique du fait de son passé de lobbyiste de la filière viticole. Plusieurs organisations, dont la Fédération française d’addictologie dénoncent un possible conflit d'intérêts « au détriment de la santé publique ». Des documents divulgués par  Le Monde en 2022 montrent comment Audrey Bourolleau a défendu à l’Élysée les intérêts du secteur de l’alcool, et est intervenue pour édulcorer les stratégies publiques de lutte contre les consommations nocives d’alcool.
+Elle quitte l'Élysée en juillet 2019. Les milieux agricoles évoquent des tensions avec le ministre de l'Agriculture de l'époque, Didier Guillaume.
+En décembre 2019, elle fait l'acquisition d'un domaine agricole de 250 hectares dans les Yvelines, qu’elle entreprend de convertir à l’agriculture biologique de conservation (ABC) et où elle annonce vouloir faire « le plus grand campus agricole du monde », baptisé Hectar, pour y former des salariés agricoles, des  « chefs d’entreprise agricole », y installer un accélérateur de start-up, et  « sensibiliser » de jeunes publics à l'agriculture, sur lequel elle fonde Hectar, une école d'agriculture gratuite, financée par l'homme d'affaires et milliardaire Xavier Niel.
+Pendant la campagne présidentielle de 2022, elle est placée par Emmanuel Macron à la tête de son groupe de campagne consacré aux questions d’agriculture et d’alimentation.
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Audrey Bourolleau est mariée à Xavier Alberti, entrepreneur et dirigeant d'entreprises. Ils ont deux enfants[25],[22].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Audrey Bourolleau est mariée à Xavier Alberti, entrepreneur et dirigeant d'entreprises. Ils ont deux enfants,.
 </t>
         </is>
       </c>
